--- a/Assets/Resources/MasterData/ItemData.xlsx
+++ b/Assets/Resources/MasterData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C609E-E07A-41BC-BA94-EFC0E43765FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB09B990-1ADD-43EB-87AB-4A5D2140CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="-15210" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -463,7 +463,8 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <f>2000+A2</f>
+        <v>2000</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP(D2,reference!A:B,2,FALSE)</f>
@@ -473,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -481,14 +482,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1001</v>
+        <f t="shared" ref="B3:B12" si="0">2000+A3</f>
+        <v>2001</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP(D3,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -499,14 +501,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1002</v>
+        <f t="shared" si="0"/>
+        <v>2002</v>
       </c>
       <c r="C4" s="2">
         <f>VLOOKUP(D4,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -517,7 +520,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1003</v>
+        <f t="shared" si="0"/>
+        <v>2003</v>
       </c>
       <c r="C5" s="2">
         <f>VLOOKUP(D5,reference!A:B,2,FALSE)</f>
@@ -535,7 +539,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1004</v>
+        <f t="shared" si="0"/>
+        <v>2004</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(D6,reference!A:B,2,FALSE)</f>
@@ -553,7 +558,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1005</v>
+        <f t="shared" si="0"/>
+        <v>2005</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(D7,reference!A:B,2,FALSE)</f>
@@ -571,7 +577,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1006</v>
+        <f t="shared" si="0"/>
+        <v>2006</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
@@ -589,7 +596,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1007</v>
+        <f t="shared" si="0"/>
+        <v>2007</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
@@ -607,7 +615,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1008</v>
+        <f t="shared" si="0"/>
+        <v>2008</v>
       </c>
       <c r="C10" s="2">
         <f>VLOOKUP(D10,reference!A:B,2,FALSE)</f>
@@ -625,7 +634,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1009</v>
+        <f t="shared" si="0"/>
+        <v>2009</v>
       </c>
       <c r="C11" s="2">
         <f>VLOOKUP(D11,reference!A:B,2,FALSE)</f>
@@ -643,7 +653,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1010</v>
+        <f t="shared" si="0"/>
+        <v>2010</v>
       </c>
       <c r="C12" s="2">
         <f>VLOOKUP(D12,reference!A:B,2,FALSE)</f>
